--- a/Pruebas de Software/Casos_de_Pruebas.xlsx
+++ b/Pruebas de Software/Casos_de_Pruebas.xlsx
@@ -62,9 +62,6 @@
     <t xml:space="preserve">1. Iniciar sesión                   2. Ir al menú                        3. Click en agendar visita   4. No llenar ningún campo y enviar     </t>
   </si>
   <si>
-    <t>Debe estar creado el formulario</t>
-  </si>
-  <si>
     <t>Debe llenar todos los campos</t>
   </si>
   <si>
@@ -288,6 +285,9 @@
   </si>
   <si>
     <t>Identificación</t>
+  </si>
+  <si>
+    <t>El instructor debe estar logueado y tener aprendices asignados</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,6 +399,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,6 +426,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -426,31 +441,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -758,7 +761,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:H29"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,13 +771,13 @@
     <col min="3" max="3" width="49.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
     <col min="7" max="7" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -813,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -821,14 +824,14 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -839,22 +842,22 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="73.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -865,22 +868,22 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="87.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -891,22 +894,22 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -917,28 +920,28 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -951,19 +954,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>7</v>
@@ -974,25 +977,25 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="70.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1000,25 +1003,25 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="70.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1026,25 +1029,25 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1052,377 +1055,377 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="70.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>11</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>11</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="C19" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="G19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>12</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>12</v>
-      </c>
-      <c r="B23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="D23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="22" t="s">
+      <c r="F23" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="G23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="H23" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>13</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="1:8" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="28"/>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>13</v>
-      </c>
-      <c r="B26" s="14" t="s">
+      <c r="C26" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="D26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="F26" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="H26" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" ht="53.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>14</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="1:8" ht="53.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>14</v>
-      </c>
-      <c r="B30" s="14" t="s">
+      <c r="C30" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="D30" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="F30" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="G30" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="H30" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>15</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="1:8" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>15</v>
-      </c>
-      <c r="B34" s="14" t="s">
+      <c r="C34" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="D34" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="F34" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="G34" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>17</v>
+      <c r="H34" s="25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="27"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="27"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="27"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="27"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="28"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,12 +1532,6 @@
     <mergeCell ref="G30:G33"/>
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="G19:G22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="D34:D39"/>
     <mergeCell ref="E34:E39"/>
     <mergeCell ref="F34:F39"/>
@@ -1543,12 +1540,13 @@
     <mergeCell ref="D30:D33"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
     <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
@@ -1560,6 +1558,11 @@
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
